--- a/data/ask_azan.xlsx
+++ b/data/ask_azan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/precioux/Documents/Eunoia-Plus/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/precioux/Documents/Eunoia-Plus/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88F01E3-0404-FF44-94E2-206E165F3E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58D39B4-E3E0-3F42-B828-ECF9CB13D282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" xr2:uid="{2368B23F-5893-E94D-AAB9-1CED8FD2E0E0}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17020" xr2:uid="{2368B23F-5893-E94D-AAB9-1CED8FD2E0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,21 +392,12 @@
     <t>اذان مغرب به وقت خوزستان</t>
   </si>
   <si>
-    <t>میخام روزه بگیرم اذان صبح و مغرب رو بگو بهم</t>
-  </si>
-  <si>
-    <t>اذان صبح و مغرب</t>
-  </si>
-  <si>
     <t>تاریخ چه روزی رو میخوای؟</t>
   </si>
   <si>
     <t>شهر خرم آباد</t>
   </si>
   <si>
-    <t>لیست اذان صبح و مغرب فردا API</t>
-  </si>
-  <si>
     <t>روزه ام. پس کی اذان مغربو میگن؟</t>
   </si>
   <si>
@@ -579,6 +570,15 @@
   </si>
   <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>میخام روزه بگیرم اذان صبح  رو بگو بهم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اذان صبح </t>
+  </si>
+  <si>
+    <t>لیست اذان صبح فردا API</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86E68D4-BB8F-904F-AEF7-9D762403F9DD}">
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1166,19 +1166,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20">
@@ -1195,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
@@ -1212,7 +1212,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20">
@@ -1229,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20">
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20">
@@ -1263,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1282,7 +1282,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1301,7 +1301,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1320,7 +1320,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1339,7 +1339,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20">
@@ -1356,7 +1356,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20">
@@ -1373,7 +1373,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20">
@@ -1390,7 +1390,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20">
@@ -1407,7 +1407,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20">
@@ -1424,7 +1424,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20">
@@ -1441,7 +1441,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20">
@@ -1458,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20">
@@ -1475,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20">
@@ -1492,7 +1492,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20">
@@ -1509,7 +1509,7 @@
         <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20">
@@ -1526,7 +1526,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20">
@@ -1543,7 +1543,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20">
@@ -1560,7 +1560,7 @@
         <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20">
@@ -1577,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20">
@@ -1594,7 +1594,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20">
@@ -1611,7 +1611,7 @@
         <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20">
@@ -1628,7 +1628,7 @@
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20">
@@ -1645,7 +1645,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20">
@@ -1662,7 +1662,7 @@
         <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20">
@@ -1679,7 +1679,7 @@
         <v>58</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20">
@@ -1696,7 +1696,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20">
@@ -1713,7 +1713,7 @@
         <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20">
@@ -1730,7 +1730,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20">
@@ -1747,7 +1747,7 @@
         <v>63</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20">
@@ -1764,7 +1764,7 @@
         <v>63</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20">
@@ -1781,7 +1781,7 @@
         <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20">
@@ -1798,7 +1798,7 @@
         <v>68</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20">
@@ -1815,7 +1815,7 @@
         <v>68</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20">
@@ -1832,7 +1832,7 @@
         <v>68</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20">
@@ -1849,7 +1849,7 @@
         <v>72</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20">
@@ -1866,7 +1866,7 @@
         <v>72</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20">
@@ -1883,7 +1883,7 @@
         <v>72</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20">
@@ -1900,7 +1900,7 @@
         <v>72</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20">
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20">
@@ -1934,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20">
@@ -1951,7 +1951,7 @@
         <v>77</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20">
@@ -1968,7 +1968,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20">
@@ -1985,7 +1985,7 @@
         <v>39</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20">
@@ -2002,7 +2002,7 @@
         <v>39</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20">
@@ -2019,7 +2019,7 @@
         <v>39</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20">
@@ -2036,7 +2036,7 @@
         <v>39</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20">
@@ -2053,7 +2053,7 @@
         <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20">
@@ -2070,7 +2070,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20">
@@ -2087,7 +2087,7 @@
         <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20">
@@ -2104,7 +2104,7 @@
         <v>58</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20">
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20">
@@ -2138,7 +2138,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="20">
@@ -2155,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20">
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="20">
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="20">
@@ -2206,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="20">
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="20">
@@ -2234,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="20">
@@ -2248,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="20">
@@ -2262,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="20">
@@ -2276,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="20">
@@ -2290,7 +2290,7 @@
         <v>9</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="20">
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="20">
@@ -2332,7 +2332,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="20">
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="20">
@@ -2360,7 +2360,7 @@
         <v>5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="20">
@@ -2374,7 +2374,7 @@
         <v>5</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="20">
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="20">
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="20">
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="20">
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="20">
@@ -2444,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="20">
@@ -2458,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="20">
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="20">
@@ -2486,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="20">
@@ -2500,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="20">
@@ -2514,7 +2514,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="20">
@@ -2528,7 +2528,7 @@
         <v>107</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="20">
@@ -2542,7 +2542,7 @@
         <v>107</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="20">
@@ -2550,16 +2550,16 @@
         <v>0</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="20">
@@ -2567,16 +2567,16 @@
         <v>2</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="20">
@@ -2590,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="20">
@@ -2607,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="20">
@@ -2618,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C90" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="20">
@@ -2635,16 +2635,16 @@
         <v>2</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="20">
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>1</v>
@@ -2661,7 +2661,7 @@
         <v>77</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="20">
@@ -2669,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>1</v>
@@ -2678,7 +2678,7 @@
         <v>77</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="20">
@@ -2695,7 +2695,7 @@
         <v>77</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F94" s="7"/>
     </row>
@@ -2704,7 +2704,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C95" s="35" t="s">
         <v>11</v>
@@ -2713,7 +2713,7 @@
         <v>77</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F95" s="7"/>
       <c r="G95" s="9"/>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C96" s="36" t="s">
         <v>1</v>
@@ -2732,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F96" s="7"/>
     </row>
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C97" s="36" t="s">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="20">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C98" s="38" t="s">
         <v>1</v>
@@ -2767,7 +2767,7 @@
         <v>72</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="20">
@@ -2784,7 +2784,7 @@
         <v>72</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="20">
@@ -2801,7 +2801,7 @@
         <v>72</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -2811,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>12</v>
@@ -2820,7 +2820,7 @@
         <v>72</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>1</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
@@ -2849,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>1</v>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>58</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -2896,7 +2896,7 @@
         <v>58</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -2915,7 +2915,7 @@
         <v>58</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -2934,7 +2934,7 @@
         <v>58</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C108" s="37" t="s">
         <v>1</v>
@@ -2953,7 +2953,7 @@
         <v>77</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
@@ -2972,7 +2972,7 @@
         <v>77</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -2982,16 +2982,16 @@
         <v>0</v>
       </c>
       <c r="B110" s="39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D110" s="37" t="s">
         <v>77</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
@@ -3001,16 +3001,16 @@
         <v>2</v>
       </c>
       <c r="B111" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D111" s="37" t="s">
         <v>77</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>1</v>
@@ -3029,7 +3029,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
@@ -3039,7 +3039,7 @@
         <v>2</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>1</v>
@@ -3048,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>1</v>
@@ -3067,7 +3067,7 @@
         <v>68</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
@@ -3086,7 +3086,7 @@
         <v>68</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -3096,16 +3096,16 @@
         <v>0</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D116" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
@@ -3118,13 +3118,13 @@
         <v>17</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E117" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C118" s="40" t="s">
         <v>1</v>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C119" s="40" t="s">
         <v>1</v>
@@ -3162,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="B120" s="41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C120" s="41" t="s">
         <v>1</v>
@@ -3181,7 +3181,7 @@
         <v>58</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
@@ -3200,7 +3200,7 @@
         <v>58</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
@@ -3210,16 +3210,16 @@
         <v>0</v>
       </c>
       <c r="B122" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C122" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D122" s="41" t="s">
         <v>58</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="34"/>
@@ -3229,16 +3229,16 @@
         <v>2</v>
       </c>
       <c r="B123" s="41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C123" s="41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D123" s="41" t="s">
         <v>58</v>
       </c>
       <c r="E123" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="34"/>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>5</v>
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="34"/>
@@ -3267,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>5</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>5</v>
@@ -3295,7 +3295,7 @@
         <v>72</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="34"/>
@@ -3314,7 +3314,7 @@
         <v>72</v>
       </c>
       <c r="E127" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="34"/>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>1</v>
@@ -3333,7 +3333,7 @@
         <v>77</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
@@ -3352,7 +3352,7 @@
         <v>77</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
@@ -3371,7 +3371,7 @@
         <v>77</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -3390,7 +3390,7 @@
         <v>77</v>
       </c>
       <c r="E131" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>1</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
@@ -3419,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="B134" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>77</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
@@ -3466,7 +3466,7 @@
         <v>77</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
@@ -3476,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>14</v>
@@ -3485,7 +3485,7 @@
         <v>77</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="34"/>
@@ -3504,7 +3504,7 @@
         <v>77</v>
       </c>
       <c r="E137" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="39" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>77</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="34"/>
@@ -3533,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>1</v>
@@ -3542,7 +3542,7 @@
         <v>77</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
@@ -3552,16 +3552,16 @@
         <v>0</v>
       </c>
       <c r="B140" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C140" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D140" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="34"/>
@@ -3571,16 +3571,16 @@
         <v>2</v>
       </c>
       <c r="B141" s="41" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C141" s="41" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D141" s="41" t="s">
         <v>77</v>
       </c>
       <c r="E141" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="34"/>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C142" s="12" t="s">
         <v>5</v>
@@ -3599,7 +3599,7 @@
         <v>58</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="34"/>
@@ -3609,7 +3609,7 @@
         <v>2</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>5</v>
@@ -3618,7 +3618,7 @@
         <v>58</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="34"/>
@@ -3637,7 +3637,7 @@
         <v>58</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="34"/>
@@ -3656,7 +3656,7 @@
         <v>58</v>
       </c>
       <c r="E145" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>1</v>
@@ -3675,7 +3675,7 @@
         <v>58</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
@@ -3685,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="B147" s="41" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>1</v>
@@ -3694,7 +3694,7 @@
         <v>58</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
@@ -3713,7 +3713,7 @@
         <v>58</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34"/>
@@ -3732,7 +3732,7 @@
         <v>58</v>
       </c>
       <c r="E149" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
@@ -3761,7 +3761,7 @@
         <v>2</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C151" s="11" t="s">
         <v>1</v>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
@@ -3780,16 +3780,16 @@
         <v>0</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C152" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
@@ -3805,10 +3805,10 @@
         <v>1</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F153" s="34"/>
       <c r="G153" s="34"/>
@@ -3824,10 +3824,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
@@ -3843,10 +3843,10 @@
         <v>6</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E155" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="B156" s="41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>1</v>
@@ -3865,7 +3865,7 @@
         <v>68</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F156" s="34"/>
       <c r="G156" s="34"/>
@@ -3884,7 +3884,7 @@
         <v>68</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
@@ -3894,16 +3894,16 @@
         <v>0</v>
       </c>
       <c r="B158" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C158" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D158" s="41" t="s">
         <v>68</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
@@ -3916,13 +3916,13 @@
         <v>17</v>
       </c>
       <c r="C159" s="41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D159" s="41" t="s">
         <v>68</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F159" s="34"/>
       <c r="G159" s="34"/>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C160" s="11" t="s">
         <v>1</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F160" s="34"/>
       <c r="G160" s="34"/>
@@ -3951,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C161" s="11" t="s">
         <v>1</v>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34"/>
@@ -3970,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C162" s="12" t="s">
         <v>20</v>
@@ -3979,7 +3979,7 @@
         <v>77</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F162" s="34"/>
       <c r="G162" s="34"/>
@@ -3998,7 +3998,7 @@
         <v>77</v>
       </c>
       <c r="E163" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -4008,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="B164" s="41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C164" s="40" t="s">
         <v>1</v>
@@ -4017,7 +4017,7 @@
         <v>58</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -4036,7 +4036,7 @@
         <v>58</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -4055,7 +4055,7 @@
         <v>58</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
@@ -4074,7 +4074,7 @@
         <v>58</v>
       </c>
       <c r="E167" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="34"/>
@@ -4084,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C168" s="11" t="s">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F168" s="34"/>
       <c r="G168" s="34"/>
@@ -4103,7 +4103,7 @@
         <v>2</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C169" s="11" t="s">
         <v>1</v>
@@ -4112,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -4131,7 +4131,7 @@
         <v>72</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -4150,7 +4150,7 @@
         <v>72</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F171" s="34"/>
       <c r="G171" s="34"/>
@@ -4169,7 +4169,7 @@
         <v>72</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
@@ -4188,7 +4188,7 @@
         <v>72</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="B174" s="41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C174" s="40" t="s">
         <v>1</v>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
@@ -4217,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="B175" s="41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C175" s="40" t="s">
         <v>1</v>
@@ -4226,7 +4226,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="B176" s="41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C176" s="40" t="s">
         <v>1</v>
@@ -4245,7 +4245,7 @@
         <v>77</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
@@ -4264,7 +4264,7 @@
         <v>77</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -4283,7 +4283,7 @@
         <v>77</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -4302,7 +4302,7 @@
         <v>77</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C180" s="11" t="s">
         <v>1</v>
@@ -4321,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
@@ -4331,7 +4331,7 @@
         <v>2</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C181" s="11" t="s">
         <v>1</v>
@@ -4340,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C182" s="11" t="s">
         <v>1</v>
@@ -4359,7 +4359,7 @@
         <v>72</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F182" s="34"/>
       <c r="G182" s="34"/>
@@ -4378,7 +4378,7 @@
         <v>72</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F183" s="34"/>
       <c r="G183" s="34"/>
@@ -4397,7 +4397,7 @@
         <v>72</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
@@ -4416,7 +4416,7 @@
         <v>72</v>
       </c>
       <c r="E185" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="B186" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C186" s="40" t="s">
         <v>1</v>
@@ -4435,7 +4435,7 @@
         <v>77</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
@@ -4454,7 +4454,7 @@
         <v>77</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="34"/>
@@ -4473,7 +4473,7 @@
         <v>77</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F188" s="34"/>
       <c r="G188" s="34"/>
@@ -4492,7 +4492,7 @@
         <v>77</v>
       </c>
       <c r="E189" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
